--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -736,7 +736,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1791,7 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1832,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1873,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -1914,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>4</v>
